--- a/nodes_source_analyses/energy/transport/transport_truck_using_gasoline_mix.converter.xlsx
+++ b/nodes_source_analyses/energy/transport/transport_truck_using_gasoline_mix.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CA66A4-98D2-0D4E-A5CD-604772F6E4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,20 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
   <si>
     <t>Source</t>
   </si>
@@ -469,22 +480,38 @@
   <si>
     <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80353ned&amp;D1=a&amp;D2=a&amp;D3=0&amp;D4=25-26&amp;HDR=T&amp;STB=G1,G2,G3&amp;VW=T</t>
   </si>
+  <si>
+    <t>Note: vans are no longer part of trucks in the ETM</t>
+  </si>
+  <si>
+    <t>Weighted average is therefore no longer used</t>
+  </si>
+  <si>
+    <t>Only truck data is used</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -994,488 +1021,489 @@
   </borders>
   <cellStyleXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="272">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1757,6 +1785,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1778,7 +1809,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Picture 1" descr="clip_image001.png"/>
+        <xdr:cNvPr id="3073" name="Picture 1" descr="clip_image001.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000010C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1805,7 +1842,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1831,7 +1868,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3074" name="Picture 2" descr="clip_image002.png"/>
+        <xdr:cNvPr id="3074" name="Picture 2" descr="clip_image002.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1860,7 +1903,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1886,7 +1929,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3075" name="Picture 3" descr="clip_image003.png"/>
+        <xdr:cNvPr id="3075" name="Picture 3" descr="clip_image003.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000030C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1915,7 +1964,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1941,7 +1990,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1979,7 +2034,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2017,7 +2078,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2055,7 +2122,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2515,15 +2588,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="24" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="16" customWidth="1"/>
@@ -2531,24 +2604,24 @@
     <col min="4" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="22" customFormat="1">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -2557,7 +2630,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
@@ -2566,7 +2639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2575,29 +2648,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="58"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="59"/>
       <c r="C10" s="60"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="59" t="s">
         <v>31</v>
@@ -2606,33 +2679,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="59"/>
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="59"/>
       <c r="C13" s="62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="59"/>
       <c r="C14" s="60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="59"/>
       <c r="C15" s="60"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="59" t="s">
         <v>36</v>
@@ -2641,49 +2714,49 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="59"/>
       <c r="C17" s="64" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="59"/>
       <c r="C18" s="65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="59"/>
       <c r="C19" s="66" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="67"/>
       <c r="C20" s="68" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="67"/>
       <c r="C21" s="69" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="67"/>
       <c r="C22" s="70" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="67"/>
       <c r="C23" s="71" t="s">
         <v>44</v>
@@ -2696,8 +2769,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J20"/>
@@ -2706,7 +2779,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="29" customWidth="1"/>
@@ -2721,50 +2794,50 @@
     <col min="11" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="129" t="s">
+    <row r="2" spans="2:10" ht="16" customHeight="1">
+      <c r="B2" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="131"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="134"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="134"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="135"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137"/>
-    </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="133"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="136"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="137"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1">
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="31"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2775,7 +2848,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" s="19" customFormat="1">
       <c r="B8" s="72"/>
       <c r="C8" s="73" t="s">
         <v>20</v>
@@ -2796,7 +2869,7 @@
       </c>
       <c r="J8" s="75"/>
     </row>
-    <row r="9" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" s="19" customFormat="1">
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
       <c r="D9" s="26"/>
@@ -2807,7 +2880,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
         <v>45</v>
@@ -2820,7 +2893,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="18"/>
       <c r="C11" s="128" t="s">
         <v>106</v>
@@ -2830,7 +2903,7 @@
       </c>
       <c r="E11" s="28">
         <f>'Research data'!E7</f>
-        <v>0.59533058852630349</v>
+        <v>0.881317856730362</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="119" t="s">
@@ -2842,7 +2915,7 @@
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="34"/>
       <c r="C12" s="30"/>
       <c r="D12" s="76"/>
@@ -2853,7 +2926,7 @@
       <c r="I12" s="78"/>
       <c r="J12" s="79"/>
     </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="34"/>
       <c r="C13" s="13" t="s">
         <v>5</v>
@@ -2866,7 +2939,7 @@
       <c r="I13" s="78"/>
       <c r="J13" s="79"/>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="34"/>
       <c r="C14" s="33" t="s">
         <v>23</v>
@@ -2888,7 +2961,7 @@
       </c>
       <c r="J14" s="79"/>
     </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="34"/>
       <c r="C15" s="33" t="s">
         <v>22</v>
@@ -2907,7 +2980,7 @@
       </c>
       <c r="J15" s="79"/>
     </row>
-    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -2918,7 +2991,7 @@
       <c r="I16" s="37"/>
       <c r="J16" s="38"/>
     </row>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G5"/>
@@ -2929,8 +3002,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A2:M14"/>
@@ -2939,7 +3012,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="4.5" style="40" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" style="40" customWidth="1"/>
@@ -2954,8 +3027,8 @@
     <col min="12" max="16384" width="10.83203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17" thickBot="1"/>
+    <row r="3" spans="1:13">
       <c r="B3" s="41"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -2967,7 +3040,7 @@
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
     </row>
-    <row r="4" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="19" customFormat="1">
       <c r="B4" s="18"/>
       <c r="C4" s="83" t="s">
         <v>46</v>
@@ -2991,7 +3064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="18"/>
       <c r="C5" s="9"/>
@@ -3006,7 +3079,7 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="19"/>
       <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
@@ -3023,7 +3096,7 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
     </row>
-    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" thickBot="1">
       <c r="A7" s="19"/>
       <c r="B7" s="18"/>
       <c r="C7" s="116" t="s">
@@ -3034,7 +3107,7 @@
       </c>
       <c r="E7" s="118">
         <f>Notes!E138</f>
-        <v>0.59533058852630349</v>
+        <v>0.881317856730362</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="9"/>
@@ -3043,10 +3116,10 @@
       <c r="K7" s="53"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="B8" s="43"/>
     </row>
-    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17" thickBot="1">
       <c r="B9" s="43"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
@@ -3062,7 +3135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" thickBot="1">
       <c r="B10" s="43"/>
       <c r="C10" s="49" t="s">
         <v>3</v>
@@ -3089,7 +3162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="B11" s="43"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -3101,7 +3174,7 @@
       <c r="J11" s="44"/>
       <c r="K11" s="46"/>
     </row>
-    <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17" thickBot="1">
       <c r="B12" s="43"/>
       <c r="C12" s="12" t="s">
         <v>47</v>
@@ -3115,7 +3188,7 @@
       <c r="J12" s="44"/>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" thickBot="1">
       <c r="B13" s="43"/>
       <c r="C13" s="82" t="s">
         <v>48</v>
@@ -3140,7 +3213,7 @@
       <c r="J13" s="44"/>
       <c r="K13" s="84"/>
     </row>
-    <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17" thickBot="1">
       <c r="B14" s="43"/>
       <c r="C14" s="82" t="s">
         <v>49</v>
@@ -3171,17 +3244,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="85" customWidth="1"/>
     <col min="2" max="2" width="4" style="85" customWidth="1"/>
@@ -3195,8 +3268,8 @@
     <col min="11" max="16384" width="33.1640625" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="87"/>
       <c r="C2" s="88"/>
       <c r="D2" s="88"/>
@@ -3207,7 +3280,7 @@
       <c r="I2" s="89"/>
       <c r="J2" s="88"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="90"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
@@ -3220,7 +3293,7 @@
       <c r="I3" s="91"/>
       <c r="J3" s="92"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="90"/>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
@@ -3231,7 +3304,7 @@
       <c r="I4" s="93"/>
       <c r="J4" s="92"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="94"/>
       <c r="C5" s="73" t="s">
         <v>17</v>
@@ -3258,7 +3331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="90"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3269,7 +3342,7 @@
       <c r="I6" s="91"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="90"/>
       <c r="C7" s="96"/>
       <c r="D7" s="92" t="s">
@@ -3292,7 +3365,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="90"/>
       <c r="C8" s="98" t="s">
         <v>6</v>
@@ -3305,7 +3378,7 @@
       <c r="I8" s="92"/>
       <c r="J8" s="92"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="90"/>
       <c r="C9" s="96" t="s">
         <v>50</v>
@@ -3318,7 +3391,7 @@
       <c r="I9" s="92"/>
       <c r="J9" s="92"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="90"/>
       <c r="C10" s="96" t="s">
         <v>3</v>
@@ -3331,7 +3404,7 @@
       <c r="I10" s="92"/>
       <c r="J10" s="92"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="90"/>
       <c r="C11" s="96"/>
       <c r="D11" s="92"/>
@@ -3342,7 +3415,7 @@
       <c r="I11" s="92"/>
       <c r="J11" s="92"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="90"/>
       <c r="C12" s="98"/>
       <c r="D12" s="92" t="s">
@@ -3365,7 +3438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="90"/>
       <c r="C13" s="96" t="s">
         <v>6</v>
@@ -3378,7 +3451,7 @@
       <c r="I13" s="92"/>
       <c r="J13" s="92"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="90"/>
       <c r="C14" s="96" t="s">
         <v>3</v>
@@ -3391,7 +3464,7 @@
       <c r="I14" s="92"/>
       <c r="J14" s="92"/>
     </row>
-    <row r="17" spans="3:10" ht="22" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" ht="22">
       <c r="C17" s="113" t="s">
         <v>83</v>
       </c>
@@ -3417,83 +3490,83 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="3:10" s="138" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="138" t="s">
+    <row r="19" spans="3:10" s="129" customFormat="1">
+      <c r="C19" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="138" t="s">
+      <c r="E19" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="138">
+      <c r="G19" s="129">
         <v>2015</v>
       </c>
-      <c r="H19" s="139" t="s">
+      <c r="H19" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="139" t="s">
+      <c r="I19" s="130" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="3:10" s="138" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="138" t="s">
+    <row r="20" spans="3:10" s="129" customFormat="1">
+      <c r="C20" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="138" t="s">
+      <c r="D20" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="138" t="s">
+      <c r="E20" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="138">
+      <c r="G20" s="129">
         <v>2015</v>
       </c>
-      <c r="H20" s="139" t="s">
+      <c r="H20" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="139" t="s">
+      <c r="I20" s="130" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="3:10" s="138" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="138" t="s">
+    <row r="21" spans="3:10" s="129" customFormat="1">
+      <c r="C21" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="138" t="s">
+      <c r="D21" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="138" t="s">
+      <c r="E21" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="138">
+      <c r="G21" s="129">
         <v>2016</v>
       </c>
-      <c r="H21" s="139" t="s">
+      <c r="H21" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="139" t="s">
+      <c r="I21" s="130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="3:10" s="138" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="138" t="s">
+    <row r="22" spans="3:10" s="129" customFormat="1">
+      <c r="C22" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="138" t="s">
+      <c r="E22" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="138">
+      <c r="G22" s="129">
         <v>2016</v>
       </c>
-      <c r="H22" s="139" t="s">
+      <c r="H22" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="139" t="s">
+      <c r="I22" s="130" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3504,14 +3577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.1640625" style="39" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" style="39" customWidth="1"/>
@@ -3521,7 +3594,7 @@
     <col min="6" max="16384" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17" thickBot="1">
       <c r="A1" s="100"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -3534,7 +3607,7 @@
       <c r="J1" s="100"/>
       <c r="K1" s="100"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="100"/>
       <c r="B2" s="101"/>
       <c r="C2" s="102"/>
@@ -3547,7 +3620,7 @@
       <c r="J2" s="102"/>
       <c r="K2" s="102"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="103"/>
       <c r="B3" s="104"/>
       <c r="C3" s="105" t="s">
@@ -3564,7 +3637,7 @@
       <c r="J3" s="105"/>
       <c r="K3" s="105"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="100"/>
       <c r="B4" s="106"/>
       <c r="C4" s="100"/>
@@ -3577,7 +3650,7 @@
       <c r="J4" s="100"/>
       <c r="K4" s="100"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="100"/>
       <c r="B5" s="106"/>
       <c r="C5" s="100"/>
@@ -3590,7 +3663,7 @@
       <c r="J5" s="100"/>
       <c r="K5" s="100"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="100"/>
       <c r="B6" s="106"/>
       <c r="C6" s="100" t="s">
@@ -3605,7 +3678,7 @@
       <c r="J6" s="100"/>
       <c r="K6" s="100"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="100"/>
       <c r="B7" s="106"/>
       <c r="C7" s="100" t="s">
@@ -3620,7 +3693,7 @@
       <c r="J7" s="100"/>
       <c r="K7" s="100"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="100"/>
       <c r="B8" s="106"/>
       <c r="C8" s="100"/>
@@ -3633,7 +3706,7 @@
       <c r="J8" s="100"/>
       <c r="K8" s="100"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="100"/>
       <c r="B9" s="106"/>
       <c r="C9" s="100"/>
@@ -3646,7 +3719,7 @@
       <c r="J9" s="100"/>
       <c r="K9" s="100"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="100"/>
       <c r="B10" s="106"/>
       <c r="C10" s="100"/>
@@ -3659,7 +3732,7 @@
       <c r="J10" s="100"/>
       <c r="K10" s="100"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="100"/>
       <c r="B11" s="106"/>
       <c r="C11" s="100"/>
@@ -3672,7 +3745,7 @@
       <c r="J11" s="100"/>
       <c r="K11" s="100"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="100"/>
       <c r="B12" s="106"/>
       <c r="C12" s="100">
@@ -3689,7 +3762,7 @@
       <c r="J12" s="100"/>
       <c r="K12" s="100"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="100"/>
       <c r="B13" s="106"/>
       <c r="C13" s="100"/>
@@ -3702,7 +3775,7 @@
       <c r="J13" s="100"/>
       <c r="K13" s="100"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="100"/>
       <c r="B14" s="106"/>
       <c r="C14" s="100"/>
@@ -3715,7 +3788,7 @@
       <c r="J14" s="100"/>
       <c r="K14" s="100"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="100"/>
       <c r="B15" s="106"/>
       <c r="C15" s="100"/>
@@ -3728,7 +3801,7 @@
       <c r="J15" s="100"/>
       <c r="K15" s="100"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="100"/>
       <c r="B16" s="106"/>
       <c r="C16" s="100"/>
@@ -3741,7 +3814,7 @@
       <c r="J16" s="100"/>
       <c r="K16" s="100"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="100"/>
       <c r="B17" s="106"/>
       <c r="C17" s="100"/>
@@ -3754,7 +3827,7 @@
       <c r="J17" s="100"/>
       <c r="K17" s="100"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="100"/>
       <c r="B18" s="106"/>
       <c r="C18" s="100"/>
@@ -3767,7 +3840,7 @@
       <c r="J18" s="100"/>
       <c r="K18" s="100"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="100"/>
       <c r="B19" s="106"/>
       <c r="C19" s="100"/>
@@ -3780,7 +3853,7 @@
       <c r="J19" s="100"/>
       <c r="K19" s="100"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="100"/>
       <c r="B20" s="106"/>
       <c r="C20" s="100"/>
@@ -3793,7 +3866,7 @@
       <c r="J20" s="100"/>
       <c r="K20" s="100"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="100"/>
       <c r="B21" s="106"/>
       <c r="C21" s="100"/>
@@ -3806,7 +3879,7 @@
       <c r="J21" s="100"/>
       <c r="K21" s="100"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="100"/>
       <c r="B22" s="106"/>
       <c r="C22" s="100" t="s">
@@ -3821,7 +3894,7 @@
       <c r="J22" s="100"/>
       <c r="K22" s="100"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="100"/>
       <c r="B23" s="106"/>
       <c r="C23" s="100"/>
@@ -3834,7 +3907,7 @@
       <c r="J23" s="100"/>
       <c r="K23" s="100"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="100"/>
       <c r="B24" s="106"/>
       <c r="C24" s="100"/>
@@ -3847,7 +3920,7 @@
       <c r="J24" s="100"/>
       <c r="K24" s="100"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="100"/>
       <c r="B25" s="106"/>
       <c r="C25" s="100"/>
@@ -3860,7 +3933,7 @@
       <c r="J25" s="100"/>
       <c r="K25" s="100"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="100"/>
       <c r="B26" s="106"/>
       <c r="C26" s="100"/>
@@ -3873,7 +3946,7 @@
       <c r="J26" s="100"/>
       <c r="K26" s="100"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="100"/>
       <c r="B27" s="106"/>
       <c r="C27" s="100"/>
@@ -3886,7 +3959,7 @@
       <c r="J27" s="100"/>
       <c r="K27" s="100"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="100"/>
       <c r="B28" s="106"/>
       <c r="C28" s="100"/>
@@ -3899,7 +3972,7 @@
       <c r="J28" s="100"/>
       <c r="K28" s="100"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="100"/>
       <c r="B29" s="106"/>
       <c r="C29" s="100">
@@ -3916,7 +3989,7 @@
       <c r="J29" s="100"/>
       <c r="K29" s="100"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="100"/>
       <c r="B30" s="106"/>
       <c r="C30" s="100"/>
@@ -3929,7 +4002,7 @@
       <c r="J30" s="100"/>
       <c r="K30" s="100"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="100"/>
       <c r="B31" s="106"/>
       <c r="C31" s="100"/>
@@ -3942,7 +4015,7 @@
       <c r="J31" s="100"/>
       <c r="K31" s="100"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="100"/>
       <c r="B32" s="106"/>
       <c r="C32" s="100"/>
@@ -3955,7 +4028,7 @@
       <c r="J32" s="100"/>
       <c r="K32" s="100"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="100"/>
       <c r="B33" s="106"/>
       <c r="C33" s="100"/>
@@ -3968,7 +4041,7 @@
       <c r="J33" s="100"/>
       <c r="K33" s="100"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="100"/>
       <c r="B34" s="106"/>
       <c r="C34" s="100"/>
@@ -3981,7 +4054,7 @@
       <c r="J34" s="100"/>
       <c r="K34" s="100"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="100"/>
       <c r="B35" s="106"/>
       <c r="C35" s="100"/>
@@ -3994,7 +4067,7 @@
       <c r="J35" s="100"/>
       <c r="K35" s="100"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="100"/>
       <c r="B36" s="106"/>
       <c r="C36" s="100"/>
@@ -4007,7 +4080,7 @@
       <c r="J36" s="100"/>
       <c r="K36" s="100"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="100"/>
       <c r="B37" s="106"/>
       <c r="C37" s="100"/>
@@ -4020,7 +4093,7 @@
       <c r="J37" s="100"/>
       <c r="K37" s="100"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="100"/>
       <c r="B38" s="106"/>
       <c r="C38" s="100"/>
@@ -4033,7 +4106,7 @@
       <c r="J38" s="100"/>
       <c r="K38" s="100"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="100"/>
       <c r="B39" s="106"/>
       <c r="C39" s="100"/>
@@ -4046,7 +4119,7 @@
       <c r="J39" s="100"/>
       <c r="K39" s="100"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="100"/>
       <c r="B40" s="106"/>
       <c r="C40" s="100"/>
@@ -4059,7 +4132,7 @@
       <c r="J40" s="100"/>
       <c r="K40" s="100"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="100"/>
       <c r="B41" s="106"/>
       <c r="C41" s="100" t="s">
@@ -4074,7 +4147,7 @@
       <c r="J41" s="100"/>
       <c r="K41" s="100"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="100"/>
       <c r="B42" s="106"/>
       <c r="C42" s="100" t="s">
@@ -4089,7 +4162,7 @@
       <c r="J42" s="100"/>
       <c r="K42" s="100"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="100"/>
       <c r="B43" s="106"/>
       <c r="C43" s="100"/>
@@ -4102,7 +4175,7 @@
       <c r="J43" s="100"/>
       <c r="K43" s="100"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="100"/>
       <c r="B44" s="106"/>
       <c r="C44" s="100"/>
@@ -4115,7 +4188,7 @@
       <c r="J44" s="100"/>
       <c r="K44" s="100"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="100"/>
       <c r="B45" s="106"/>
       <c r="C45" s="100">
@@ -4132,7 +4205,7 @@
       <c r="J45" s="100"/>
       <c r="K45" s="100"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="100"/>
       <c r="B46" s="106"/>
       <c r="C46" s="100"/>
@@ -4145,7 +4218,7 @@
       <c r="J46" s="100"/>
       <c r="K46" s="100"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="100"/>
       <c r="B47" s="106"/>
       <c r="C47" s="100">
@@ -4162,7 +4235,7 @@
       <c r="J47" s="100"/>
       <c r="K47" s="100"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="100"/>
       <c r="B48" s="106"/>
       <c r="C48" s="100"/>
@@ -4175,7 +4248,7 @@
       <c r="J48" s="100"/>
       <c r="K48" s="100"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="100"/>
       <c r="B49" s="106"/>
       <c r="C49" s="100"/>
@@ -4188,7 +4261,7 @@
       <c r="J49" s="100"/>
       <c r="K49" s="100"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="100"/>
       <c r="B50" s="106"/>
       <c r="C50" s="100"/>
@@ -4201,7 +4274,7 @@
       <c r="J50" s="100"/>
       <c r="K50" s="100"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="100"/>
       <c r="B51" s="106"/>
       <c r="C51" s="100"/>
@@ -4214,7 +4287,7 @@
       <c r="J51" s="100"/>
       <c r="K51" s="100"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="100"/>
       <c r="B52" s="106"/>
       <c r="C52" s="100"/>
@@ -4227,7 +4300,7 @@
       <c r="J52" s="100"/>
       <c r="K52" s="100"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" s="100"/>
       <c r="B53" s="106"/>
       <c r="C53" s="100"/>
@@ -4240,7 +4313,7 @@
       <c r="J53" s="100"/>
       <c r="K53" s="100"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="100"/>
       <c r="B54" s="106"/>
       <c r="C54" s="100">
@@ -4257,7 +4330,7 @@
       <c r="J54" s="100"/>
       <c r="K54" s="100"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="100"/>
       <c r="B55" s="106"/>
       <c r="C55" s="100">
@@ -4274,7 +4347,7 @@
       <c r="J55" s="100"/>
       <c r="K55" s="100"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="100"/>
       <c r="B56" s="106"/>
       <c r="C56" s="100"/>
@@ -4287,7 +4360,7 @@
       <c r="J56" s="100"/>
       <c r="K56" s="100"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="100"/>
       <c r="B57" s="106"/>
       <c r="C57" s="100"/>
@@ -4300,7 +4373,7 @@
       <c r="J57" s="100"/>
       <c r="K57" s="100"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="111"/>
       <c r="B58" s="106"/>
       <c r="C58" s="100"/>
@@ -4313,7 +4386,7 @@
       <c r="J58" s="100"/>
       <c r="K58" s="100"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="100"/>
       <c r="B59" s="106"/>
       <c r="C59" s="100"/>
@@ -4326,7 +4399,7 @@
       <c r="J59" s="100"/>
       <c r="K59" s="100"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="100"/>
       <c r="B60" s="106"/>
       <c r="C60" s="100"/>
@@ -4339,100 +4412,100 @@
       <c r="J60" s="100"/>
       <c r="K60" s="100"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" s="100"/>
       <c r="B61" s="106"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" s="100"/>
       <c r="B62" s="106"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" s="100"/>
       <c r="B63" s="106"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" s="100"/>
       <c r="B64" s="106"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="100"/>
       <c r="B65" s="106"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="100"/>
       <c r="B66" s="106"/>
       <c r="C66" s="112" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="100"/>
       <c r="B67" s="106"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="100"/>
       <c r="B68" s="106"/>
       <c r="C68" s="39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="100"/>
       <c r="B69" s="106"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="111"/>
       <c r="B70" s="106"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="100"/>
       <c r="B71" s="106"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="100"/>
       <c r="B72" s="106"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="100"/>
       <c r="B73" s="106"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="100"/>
       <c r="B74" s="106"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="100"/>
       <c r="B75" s="106"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="100"/>
       <c r="B76" s="106"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="100"/>
       <c r="B77" s="106"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="100"/>
       <c r="B78" s="106"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="100"/>
       <c r="B79" s="106"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="100"/>
       <c r="B80" s="106"/>
       <c r="C80" s="39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="100"/>
       <c r="B81" s="106"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="111"/>
       <c r="B82" s="106"/>
       <c r="C82" s="39">
@@ -4443,32 +4516,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="100"/>
       <c r="B83" s="106"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="100"/>
       <c r="B84" s="106"/>
       <c r="C84" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="100"/>
       <c r="B85" s="106"/>
       <c r="D85" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="100"/>
       <c r="B86" s="106"/>
       <c r="D86" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="111"/>
       <c r="B87" s="106"/>
       <c r="E87" s="39" t="s">
@@ -4481,7 +4554,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="100"/>
       <c r="B88" s="106"/>
       <c r="F88" s="39">
@@ -4489,7 +4562,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="100"/>
       <c r="B89" s="106"/>
       <c r="C89" s="39" t="s">
@@ -4499,27 +4572,27 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="100"/>
       <c r="B90" s="106"/>
       <c r="D90" s="39">
         <v>43.2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="100"/>
       <c r="B91" s="106"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="100"/>
       <c r="B92" s="106"/>
     </row>
-    <row r="93" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="17" thickBot="1">
       <c r="A93" s="100"/>
       <c r="B93" s="106"/>
       <c r="D93" s="113"/>
     </row>
-    <row r="94" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="17" thickBot="1">
       <c r="A94" s="100"/>
       <c r="B94" s="106"/>
       <c r="C94" s="39" t="s">
@@ -4535,7 +4608,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="17" thickBot="1">
       <c r="A95" s="100"/>
       <c r="B95" s="106"/>
       <c r="D95" s="114">
@@ -4548,11 +4621,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="100"/>
       <c r="B96" s="106"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="100"/>
       <c r="B97" s="106"/>
       <c r="D97" s="39">
@@ -4560,7 +4633,7 @@
         <v>-2.3148148148148806E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="100"/>
       <c r="B98" s="106"/>
       <c r="D98" s="39">
@@ -4568,7 +4641,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="111"/>
       <c r="B99" s="106"/>
       <c r="D99" s="39">
@@ -4579,17 +4652,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="100"/>
       <c r="B100" s="106"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="E101" s="39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="17" thickBot="1"/>
+    <row r="103" spans="1:8" ht="17" thickBot="1">
       <c r="C103" s="39" t="s">
         <v>124</v>
       </c>
@@ -4607,7 +4680,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="D104" s="39" t="s">
         <v>81</v>
       </c>
@@ -4625,8 +4698,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="17" thickBot="1"/>
+    <row r="106" spans="1:8" ht="17" thickBot="1">
       <c r="C106" s="39" t="s">
         <v>125</v>
       </c>
@@ -4644,7 +4717,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="D107" s="39" t="s">
         <v>81</v>
       </c>
@@ -4659,7 +4732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="C108" s="39" t="s">
         <v>84</v>
       </c>
@@ -4671,7 +4744,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:12" ht="17" thickBot="1">
       <c r="G114" s="39" t="s">
         <v>108</v>
       </c>
@@ -4682,7 +4755,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:12" ht="17" thickBot="1">
       <c r="C115" s="39" t="s">
         <v>83</v>
       </c>
@@ -4697,8 +4770,12 @@
         <f>F104</f>
         <v>10.360240840902133</v>
       </c>
-    </row>
-    <row r="116" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="39">
+        <f>1/H115</f>
+        <v>9.652285263987391E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" ht="17" thickBot="1">
       <c r="C116" s="39" t="s">
         <v>51</v>
       </c>
@@ -4714,7 +4791,7 @@
         <v>2.3145218899887743</v>
       </c>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:12">
       <c r="C117" s="39" t="s">
         <v>113</v>
       </c>
@@ -4730,8 +4807,8 @@
         <v>0.21013429527112834</v>
       </c>
     </row>
-    <row r="122" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:12" ht="17" thickBot="1"/>
+    <row r="123" spans="3:12" ht="17" thickBot="1">
       <c r="F123" s="39" t="s">
         <v>115</v>
       </c>
@@ -4748,7 +4825,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:12" ht="17" thickBot="1">
       <c r="F124" s="39" t="s">
         <v>118</v>
       </c>
@@ -4762,7 +4839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:12" ht="17" thickBot="1">
       <c r="F125" s="39" t="s">
         <v>119</v>
       </c>
@@ -4779,7 +4856,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:12" ht="17" thickBot="1">
       <c r="F126" s="39" t="s">
         <v>122</v>
       </c>
@@ -4796,8 +4873,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:12" ht="17" thickBot="1"/>
+    <row r="129" spans="3:9" ht="17" thickBot="1">
       <c r="C129" s="122" t="s">
         <v>99</v>
       </c>
@@ -4805,8 +4882,8 @@
         <v>97</v>
       </c>
       <c r="E129" s="124">
-        <f>G123+G125</f>
-        <v>24838.2</v>
+        <f>G123</f>
+        <v>7546</v>
       </c>
       <c r="F129" s="123" t="s">
         <v>98</v>
@@ -4815,11 +4892,12 @@
       <c r="H129" s="123"/>
       <c r="I129" s="123"/>
     </row>
-    <row r="130" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:9" ht="17" thickBot="1">
       <c r="C130" s="123"/>
       <c r="D130" s="123"/>
       <c r="E130" s="123">
-        <v>24838200000</v>
+        <f>E129*1000000</f>
+        <v>7546000000</v>
       </c>
       <c r="F130" s="123" t="s">
         <v>97</v>
@@ -4828,14 +4906,14 @@
       <c r="H130" s="123"/>
       <c r="I130" s="123"/>
     </row>
-    <row r="131" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:9" ht="17" thickBot="1">
       <c r="C131" s="123"/>
       <c r="D131" s="123" t="s">
         <v>100</v>
       </c>
       <c r="E131" s="125">
-        <f>G124+G126</f>
-        <v>70369</v>
+        <f>G124</f>
+        <v>68900</v>
       </c>
       <c r="F131" s="123" t="s">
         <v>101</v>
@@ -4844,11 +4922,12 @@
       <c r="H131" s="123"/>
       <c r="I131" s="123"/>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:9">
       <c r="C132" s="123"/>
       <c r="D132" s="123"/>
       <c r="E132" s="127">
-        <v>70369000000</v>
+        <f>E131*1000000</f>
+        <v>68900000000</v>
       </c>
       <c r="F132" s="123" t="s">
         <v>100</v>
@@ -4857,7 +4936,7 @@
       <c r="H132" s="123"/>
       <c r="I132" s="123"/>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:9">
       <c r="C133" s="123"/>
       <c r="D133" s="123"/>
       <c r="E133" s="123"/>
@@ -4866,12 +4945,12 @@
       <c r="H133" s="123"/>
       <c r="I133" s="123"/>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:9">
       <c r="C134" s="123"/>
       <c r="D134" s="123"/>
       <c r="E134" s="126">
         <f>E132/E130</f>
-        <v>2.8330957959916581</v>
+        <v>9.1306652531142323</v>
       </c>
       <c r="F134" s="123" t="s">
         <v>104</v>
@@ -4880,7 +4959,7 @@
       <c r="H134" s="123"/>
       <c r="I134" s="123"/>
     </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:9">
       <c r="C135" s="123"/>
       <c r="D135" s="123"/>
       <c r="E135" s="123"/>
@@ -4889,7 +4968,7 @@
       <c r="H135" s="123"/>
       <c r="I135" s="123"/>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:9">
       <c r="C136" s="123"/>
       <c r="D136" s="123"/>
       <c r="E136" s="123"/>
@@ -4898,7 +4977,7 @@
       <c r="H136" s="123"/>
       <c r="I136" s="123"/>
     </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:9">
       <c r="C137" s="123"/>
       <c r="D137" s="123"/>
       <c r="E137" s="123"/>
@@ -4907,14 +4986,14 @@
       <c r="H137" s="123"/>
       <c r="I137" s="123"/>
     </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:9">
       <c r="C138" s="123"/>
       <c r="D138" s="123" t="s">
         <v>106</v>
       </c>
       <c r="E138" s="123">
-        <f>E134*I117</f>
-        <v>0.59533058852630349</v>
+        <f>E134*I115</f>
+        <v>0.881317856730362</v>
       </c>
       <c r="F138" s="123" t="s">
         <v>105</v>
@@ -4925,7 +5004,7 @@
       </c>
       <c r="I138" s="123"/>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:9">
       <c r="C139" s="123"/>
       <c r="D139" s="123"/>
       <c r="E139" s="123"/>
@@ -4934,7 +5013,7 @@
       <c r="H139" s="83"/>
       <c r="I139" s="123"/>
     </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:9">
       <c r="C140" s="123"/>
       <c r="D140" s="123"/>
       <c r="E140" s="123"/>
@@ -4943,14 +5022,26 @@
       <c r="H140" s="83"/>
       <c r="I140" s="123"/>
     </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:9">
       <c r="C141" s="123"/>
-      <c r="D141" s="123"/>
+      <c r="D141" s="140" t="s">
+        <v>132</v>
+      </c>
       <c r="E141" s="123"/>
       <c r="F141" s="123"/>
       <c r="G141" s="123"/>
       <c r="H141" s="123"/>
       <c r="I141" s="123"/>
+    </row>
+    <row r="142" spans="3:9">
+      <c r="D142" s="140" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9">
+      <c r="D143" s="140" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
